--- a/biology/Botanique/Karomia/Karomia.xlsx
+++ b/biology/Botanique/Karomia/Karomia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karomia est un genre de plantes de la famille des Lamiaceae[2]. Ce genre a été décrit pour la première fois en 1932. Il est originaire d'Afrique orientale et australe, de Madagascar ainsi que du Viêt Nam.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karomia est un genre de plantes de la famille des Lamiaceae. Ce genre a été décrit pour la première fois en 1932. Il est originaire d'Afrique orientale et australe, de Madagascar ainsi que du Viêt Nam.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Karomia regroupe 9 espèces qui sont soit des arbustes ou soit des arbres[3].
-Selon Catalogue of Life                                   (23 avril 2019)[4], World Checklist of Selected Plant Families (WCSP)  (23 avril 2019)[5], The Plant List            (23 avril 2019)[6] et Tropicos                                           (23 avril 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Karomia regroupe 9 espèces qui sont soit des arbustes ou soit des arbres.
+Selon Catalogue of Life                                   (23 avril 2019), World Checklist of Selected Plant Families (WCSP)  (23 avril 2019), The Plant List            (23 avril 2019) et Tropicos                                           (23 avril 2019) :
 Karomia fragrans Dop, Bull. Mus. Natl. Hist. Nat., sér. 2 (1932)
 Karomia gigas (Faden) Verdc., Fl. Trop. E. Africa (1992)
 Karomia humbertii (Moldenke) R.Fern., Garcia de Orta (1985 publ. 1988)
